--- a/biology/Botanique/Mahonia/Mahonia.xlsx
+++ b/biology/Botanique/Mahonia/Mahonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mahonia est un genre de plantes arbustives appartenant à la famille des Berberidaceae. Il est étroitement relié au genre Berberis (épine-vinette par exemple). Certains botanistes, comme ceux du site Flora of North America, mettent les plantes de ce genre sous le genre Berberis, en raison des possibilités d’hybridation entre de nombreuses espèces de ces deux genres.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre doit son nom au botaniste américain d'origine irlandaise, Bernard McMahon (en) (1775–1816). Officiellement, le nom français de cet arbuste est "une mahonie"[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre doit son nom au botaniste américain d'origine irlandaise, Bernard McMahon (en) (1775–1816). Officiellement, le nom français de cet arbuste est "une mahonie".
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante fleurit en mars - avril où de belles fleurs jaunes font leur apparition[2], fréquemment visitées par les abeilles en raison de leur précocité. La fleur possède six étamines doublant la corolle. Lors de la visite d'insectes, le contact induit un mouvement des étamines qui se détendent et se rabattent alors vers le pistil en environ 1/10e de seconde. C'est l'un des mouvements les plus rapides parmi les végétaux, avec ceux du mimosa pudique, de l'épine-vinette, de l'ortie et quelques autres[3].
-Cette plante ne craint ni le froid ni la sécheresse[2].
-Le mahonia est une plante invasive en Europe [4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante fleurit en mars - avril où de belles fleurs jaunes font leur apparition, fréquemment visitées par les abeilles en raison de leur précocité. La fleur possède six étamines doublant la corolle. Lors de la visite d'insectes, le contact induit un mouvement des étamines qui se détendent et se rabattent alors vers le pistil en environ 1/10e de seconde. C'est l'un des mouvements les plus rapides parmi les végétaux, avec ceux du mimosa pudique, de l'épine-vinette, de l'ortie et quelques autres.
+Cette plante ne craint ni le froid ni la sécheresse.
+Le mahonia est une plante invasive en Europe .
 </t>
         </is>
       </c>
@@ -575,11 +591,48 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Mahonia comprend environ 70 espèces d’arbustes à feuilles persistantes, originaire d’Asie orientale, de l’Himalaya, de l’Amérique du Nord et d’Amérique centrale. 
-Principales espèces
-Mahonia acanthifolia G. Don
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Mahonia comprend environ 70 espèces d’arbustes à feuilles persistantes, originaire d’Asie orientale, de l’Himalaya, de l’Amérique du Nord et d’Amérique centrale. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mahonia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mahonia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mahonia acanthifolia G. Don
 Mahonia aquifolium (Pursh) Nutt.
 Mahonia bealei (Fortune) Carrière
 Mahonia bodinieri Gagnep.
@@ -612,31 +665,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Mahonia</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mahonia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Mahonia × toluacensis (hort. ex Bean) Ahrendt, voir Berberis × toluacensis.
 </t>
